--- a/April'21/19.04.2021/Bank Statement.xlsx
+++ b/April'21/19.04.2021/Bank Statement.xlsx
@@ -3079,6 +3079,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3128,30 +3152,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3875,70 +3875,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
+      <c r="P1" s="333"/>
+      <c r="Q1" s="333"/>
+      <c r="R1" s="333"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="334" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="337"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="344"/>
+      <c r="R3" s="345"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3947,55 +3947,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="335" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="329" t="s">
+      <c r="C4" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="323" t="s">
+      <c r="D4" s="331" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="323" t="s">
+      <c r="E4" s="331" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="323" t="s">
+      <c r="F4" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="323" t="s">
+      <c r="G4" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="323" t="s">
+      <c r="H4" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="323" t="s">
+      <c r="I4" s="331" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="323" t="s">
+      <c r="J4" s="331" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="338" t="s">
+      <c r="K4" s="346" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="340" t="s">
+      <c r="L4" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="342" t="s">
+      <c r="M4" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="344" t="s">
+      <c r="N4" s="327" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="346" t="s">
+      <c r="O4" s="329" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="331" t="s">
+      <c r="P4" s="339" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="333" t="s">
+      <c r="Q4" s="341" t="s">
         <v>130</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -4008,23 +4008,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="328"/>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="339"/>
-      <c r="L5" s="341"/>
-      <c r="M5" s="343"/>
-      <c r="N5" s="345"/>
-      <c r="O5" s="347"/>
-      <c r="P5" s="332"/>
-      <c r="Q5" s="334"/>
+      <c r="A5" s="336"/>
+      <c r="B5" s="338"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="347"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="328"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="340"/>
+      <c r="Q5" s="342"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -7018,14 +7018,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7038,6 +7030,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9076,7 +9076,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
